--- a/ftOMP.xlsx
+++ b/ftOMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roblanfear/Documents/github/sarscov2phylo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16740958-0F79-5B49-95C2-9A19FDC2A74E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C685A2-4588-584C-9001-8B376268E7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="3860" windowWidth="20300" windowHeight="20980" xr2:uid="{0FFB07EF-CA41-7B48-8F71-CC338EA95113}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>threads</t>
   </si>
@@ -39,13 +39,28 @@
     <t>time (h:m:s)</t>
   </si>
   <si>
-    <t>1_ftconda</t>
+    <t>lnL</t>
+  </si>
+  <si>
+    <t>wut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasttree </t>
+  </si>
+  <si>
+    <t>fasttree_omp</t>
+  </si>
+  <si>
+    <t>veryfasttree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -81,9 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,194 +415,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61F3A76-1547-FA40-A324-D5E5738CE3BC}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.36929398148148151</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <f>D2/(B2)</f>
+        <v>99</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-640122.65700000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3794907407407408</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <f>D3/(B3)</f>
+        <v>99</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.32166666666666666</v>
+      </c>
+      <c r="D4" s="1">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E15" si="0">D4/(B4)</f>
+        <v>63.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.28672453703703704</v>
+      </c>
+      <c r="D5">
+        <v>144</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.36874999999999997</v>
-      </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <f>C3/(A3)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.30987268518518518</v>
-      </c>
-      <c r="C4">
-        <v>188.53</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">C4/(A4)</f>
-        <v>94.265000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
+      <c r="C6" s="2">
+        <v>0.28736111111111112</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.27658564814814818</v>
-      </c>
-      <c r="C7">
-        <v>183</v>
+      <c r="C7" s="2">
+        <v>0.28842592592592592</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+        <v>168</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" s="2">
+        <v>0.30624999999999997</v>
+      </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.30141203703703706</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+        <v>190</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10" s="2">
+        <v>0.29579861111111111</v>
+      </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+        <v>203</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>25.375</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" s="2">
+        <v>0.3062037037037037</v>
+      </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+        <v>211</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>23.444444444444443</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.28274305555555557</v>
-      </c>
-      <c r="C12">
-        <v>257</v>
+      <c r="C12" s="2">
+        <v>0.26454861111111111</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+        <v>238</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>23.8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>20</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.28674768518518517</v>
-      </c>
-      <c r="C13">
-        <v>407</v>
+      <c r="C13" s="2">
+        <v>0.29928240740740741</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+        <v>347</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>17.350000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>50</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.29409722222222223</v>
-      </c>
-      <c r="C14">
-        <v>860</v>
+      <c r="C14" s="2">
+        <v>0.30355324074074075</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>723</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>14.46</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
         <v>100</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.30474537037037036</v>
-      </c>
-      <c r="C15">
-        <v>1589</v>
+      <c r="C15" s="2">
+        <v>0.30229166666666668</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>15.89</v>
-      </c>
+        <v>1385</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>13.85</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-640114.20400000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ftOMP.xlsx
+++ b/ftOMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roblanfear/Documents/github/sarscov2phylo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C685A2-4588-584C-9001-8B376268E7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8AAF9-B25E-7345-B539-2FABD0EACEFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="3860" windowWidth="20300" windowHeight="20980" xr2:uid="{0FFB07EF-CA41-7B48-8F71-CC338EA95113}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>threads</t>
   </si>
@@ -418,7 +418,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
         <v>127</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E15" si="0">D4/(B4)</f>
+        <f t="shared" ref="E4:E28" si="0">D4/(B4)</f>
         <v>63.5</v>
       </c>
       <c r="F4" s="1">
@@ -745,48 +745,279 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.52115740740740735</v>
+      </c>
+      <c r="D16">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-640671.01199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.51511574074074074</v>
+      </c>
+      <c r="D17" s="1">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-640671.01199999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.46208333333333335</v>
+      </c>
+      <c r="D18">
+        <v>118</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-640670.42200000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.46121527777777777</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-640669.08799999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.46247685185185183</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-640669.08799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="D21">
+        <v>141</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-640669.08799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.40526620370370375</v>
+      </c>
+      <c r="D22">
+        <v>149</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>21.285714285714285</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-640669.08900000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.39458333333333334</v>
+      </c>
+      <c r="D23">
+        <v>153</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>19.125</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-640669.08799999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.38847222222222227</v>
+      </c>
+      <c r="D24">
+        <v>159</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-640669.08799999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.38995370370370369</v>
+      </c>
+      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-640668.68099999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.3583796296296296</v>
+      </c>
+      <c r="D26">
+        <v>205</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-640655.45200000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.35863425925925929</v>
+      </c>
+      <c r="D27">
+        <v>320</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-640626.57900000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.37017361111111113</v>
+      </c>
+      <c r="D28">
+        <v>484</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>4.84</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-640626.57900000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
